--- a/data/Excel_LO_edited/Elk_LD Rain data_LO.xlsx
+++ b/data/Excel_LO_edited/Elk_LD Rain data_LO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_email_arizona_edu/Documents/grad school/Gornish lab/Altar Valley Conservation Alliance Elkhorn-Las Delicias Demo/Veg analysis (pre-GitHub)/Data moved to incorrect rows (discontinued)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/02_AVCA Elkhorn-Las Delicias/AVCA_ElkLD/data/Excel_LO_edited/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_E98CDA5382FD3014AF83ED28ECCFE2A2595CD774" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAD9EF65-462D-4048-80F9-A6216F8BA0B5}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_E98CDA5382FD3014AF83ED28ECCFE2A2595CD774" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0E3BEBC-7377-4A40-A88F-40F029730071}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>Seasonal rain data from Elk/LD Demo project.</t>
   </si>
@@ -166,7 +166,16 @@
     <t>Fence_North</t>
   </si>
   <si>
-    <t>Avg</t>
+    <t>Avg_in</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Summer</t>
   </si>
 </sst>
 </file>
@@ -212,25 +221,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -249,6 +252,940 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(R_LO!$A$3,R_LO!$A$5,R_LO!$A$7,R_LO!$A$9,R_LO!$A$11,R_LO!$A$13,R_LO!$A$15,R_LO!$A$17)</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>41912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42629</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43351</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43738</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44469</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(R_LO!$E$3,R_LO!$E$5,R_LO!$E$7,R_LO!$E$9,R_LO!$E$11,R_LO!$E$13,R_LO!$E$15,R_LO!$E$17)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.8125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.1875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F8E-4A2A-B09C-499498C1C3A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2078943759"/>
+        <c:axId val="2078944239"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2078943759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2078944239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2078944239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2078943759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F615C1EC-7CFD-CA59-F21A-79E2B41F16F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -554,8 +1491,8 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -576,130 +1513,130 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>41760</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>41912</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>42155</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>42277</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>42521</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>42629</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>42888</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>43007</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -707,24 +1644,24 @@
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -732,24 +1669,24 @@
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -757,24 +1694,24 @@
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -782,18 +1719,18 @@
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+      <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="A31" s="1"/>
     </row>
     <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -801,2908 +1738,2908 @@
       </c>
     </row>
     <row r="33" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
+      <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
+      <c r="A34" s="1"/>
     </row>
     <row r="35" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+      <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="A38" s="1"/>
     </row>
     <row r="39" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
+      <c r="A39" s="1"/>
     </row>
     <row r="40" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
+      <c r="A40" s="1"/>
     </row>
     <row r="41" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
+      <c r="A41" s="1"/>
     </row>
     <row r="42" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+      <c r="A42" s="1"/>
     </row>
     <row r="43" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
+      <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
+      <c r="A44" s="1"/>
     </row>
     <row r="45" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
+      <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
+      <c r="A46" s="1"/>
     </row>
     <row r="47" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="A47" s="1"/>
     </row>
     <row r="48" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
+      <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
+      <c r="A50" s="1"/>
     </row>
     <row r="51" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
+      <c r="A51" s="1"/>
     </row>
     <row r="52" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
+      <c r="A52" s="1"/>
     </row>
     <row r="53" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
+      <c r="A53" s="1"/>
     </row>
     <row r="54" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
+      <c r="A54" s="1"/>
     </row>
     <row r="55" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
+      <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
+      <c r="A56" s="1"/>
     </row>
     <row r="57" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
+      <c r="A57" s="1"/>
     </row>
     <row r="58" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
+      <c r="A58" s="1"/>
     </row>
     <row r="59" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
+      <c r="A59" s="1"/>
     </row>
     <row r="60" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
+      <c r="A60" s="1"/>
     </row>
     <row r="61" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
+      <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
+      <c r="A62" s="1"/>
     </row>
     <row r="63" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
+      <c r="A63" s="1"/>
     </row>
     <row r="64" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
+      <c r="A64" s="1"/>
     </row>
     <row r="65" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
+      <c r="A65" s="1"/>
     </row>
     <row r="66" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
+      <c r="A66" s="1"/>
     </row>
     <row r="67" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
+      <c r="A67" s="1"/>
     </row>
     <row r="68" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
+      <c r="A68" s="1"/>
     </row>
     <row r="69" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
+      <c r="A69" s="1"/>
     </row>
     <row r="70" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
+      <c r="A70" s="1"/>
     </row>
     <row r="71" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
+      <c r="A71" s="1"/>
     </row>
     <row r="72" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
+      <c r="A72" s="1"/>
     </row>
     <row r="73" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
+      <c r="A73" s="1"/>
     </row>
     <row r="74" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
+      <c r="A74" s="1"/>
     </row>
     <row r="75" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
+      <c r="A75" s="1"/>
     </row>
     <row r="76" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
+      <c r="A76" s="1"/>
     </row>
     <row r="77" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
+      <c r="A77" s="1"/>
     </row>
     <row r="78" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
+      <c r="A78" s="1"/>
     </row>
     <row r="79" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
+      <c r="A79" s="1"/>
     </row>
     <row r="80" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
+      <c r="A80" s="1"/>
     </row>
     <row r="81" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
+      <c r="A81" s="1"/>
     </row>
     <row r="82" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
+      <c r="A82" s="1"/>
     </row>
     <row r="83" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
+      <c r="A83" s="1"/>
     </row>
     <row r="84" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
+      <c r="A84" s="1"/>
     </row>
     <row r="85" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
+      <c r="A85" s="1"/>
     </row>
     <row r="86" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
+      <c r="A86" s="1"/>
     </row>
     <row r="87" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
+      <c r="A87" s="1"/>
     </row>
     <row r="88" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
+      <c r="A88" s="1"/>
     </row>
     <row r="89" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
+      <c r="A89" s="1"/>
     </row>
     <row r="90" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
+      <c r="A90" s="1"/>
     </row>
     <row r="91" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
+      <c r="A91" s="1"/>
     </row>
     <row r="92" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
+      <c r="A92" s="1"/>
     </row>
     <row r="93" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
+      <c r="A93" s="1"/>
     </row>
     <row r="94" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
+      <c r="A94" s="1"/>
     </row>
     <row r="95" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
+      <c r="A95" s="1"/>
     </row>
     <row r="96" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
+      <c r="A96" s="1"/>
     </row>
     <row r="97" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
+      <c r="A97" s="1"/>
     </row>
     <row r="98" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
+      <c r="A98" s="1"/>
     </row>
     <row r="99" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
+      <c r="A99" s="1"/>
     </row>
     <row r="100" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
+      <c r="A100" s="1"/>
     </row>
     <row r="101" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
+      <c r="A101" s="1"/>
     </row>
     <row r="102" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
+      <c r="A102" s="1"/>
     </row>
     <row r="103" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
+      <c r="A103" s="1"/>
     </row>
     <row r="104" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
+      <c r="A104" s="1"/>
     </row>
     <row r="105" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
+      <c r="A105" s="1"/>
     </row>
     <row r="106" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
+      <c r="A106" s="1"/>
     </row>
     <row r="107" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
+      <c r="A107" s="1"/>
     </row>
     <row r="108" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
+      <c r="A108" s="1"/>
     </row>
     <row r="109" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
+      <c r="A109" s="1"/>
     </row>
     <row r="110" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
+      <c r="A110" s="1"/>
     </row>
     <row r="111" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
+      <c r="A111" s="1"/>
     </row>
     <row r="112" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
+      <c r="A112" s="1"/>
     </row>
     <row r="113" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
+      <c r="A113" s="1"/>
     </row>
     <row r="114" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
+      <c r="A114" s="1"/>
     </row>
     <row r="115" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
+      <c r="A115" s="1"/>
     </row>
     <row r="116" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
+      <c r="A116" s="1"/>
     </row>
     <row r="117" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
+      <c r="A117" s="1"/>
     </row>
     <row r="118" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
+      <c r="A118" s="1"/>
     </row>
     <row r="119" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
+      <c r="A119" s="1"/>
     </row>
     <row r="120" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
+      <c r="A120" s="1"/>
     </row>
     <row r="121" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
+      <c r="A121" s="1"/>
     </row>
     <row r="122" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
+      <c r="A122" s="1"/>
     </row>
     <row r="123" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
+      <c r="A123" s="1"/>
     </row>
     <row r="124" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
+      <c r="A124" s="1"/>
     </row>
     <row r="125" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
+      <c r="A125" s="1"/>
     </row>
     <row r="126" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
+      <c r="A126" s="1"/>
     </row>
     <row r="127" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
+      <c r="A127" s="1"/>
     </row>
     <row r="128" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
+      <c r="A128" s="1"/>
     </row>
     <row r="129" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
+      <c r="A129" s="1"/>
     </row>
     <row r="130" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
+      <c r="A130" s="1"/>
     </row>
     <row r="131" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
+      <c r="A131" s="1"/>
     </row>
     <row r="132" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
+      <c r="A132" s="1"/>
     </row>
     <row r="133" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
+      <c r="A133" s="1"/>
     </row>
     <row r="134" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
+      <c r="A134" s="1"/>
     </row>
     <row r="135" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
+      <c r="A135" s="1"/>
     </row>
     <row r="136" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
+      <c r="A136" s="1"/>
     </row>
     <row r="137" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A137" s="2"/>
+      <c r="A137" s="1"/>
     </row>
     <row r="138" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
+      <c r="A138" s="1"/>
     </row>
     <row r="139" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A139" s="2"/>
+      <c r="A139" s="1"/>
     </row>
     <row r="140" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A140" s="2"/>
+      <c r="A140" s="1"/>
     </row>
     <row r="141" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A141" s="2"/>
+      <c r="A141" s="1"/>
     </row>
     <row r="142" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A142" s="2"/>
+      <c r="A142" s="1"/>
     </row>
     <row r="143" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A143" s="2"/>
+      <c r="A143" s="1"/>
     </row>
     <row r="144" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A144" s="2"/>
+      <c r="A144" s="1"/>
     </row>
     <row r="145" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
+      <c r="A145" s="1"/>
     </row>
     <row r="146" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A146" s="2"/>
+      <c r="A146" s="1"/>
     </row>
     <row r="147" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
+      <c r="A147" s="1"/>
     </row>
     <row r="148" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A148" s="2"/>
+      <c r="A148" s="1"/>
     </row>
     <row r="149" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
+      <c r="A149" s="1"/>
     </row>
     <row r="150" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A150" s="2"/>
+      <c r="A150" s="1"/>
     </row>
     <row r="151" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
+      <c r="A151" s="1"/>
     </row>
     <row r="152" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A152" s="2"/>
+      <c r="A152" s="1"/>
     </row>
     <row r="153" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A153" s="2"/>
+      <c r="A153" s="1"/>
     </row>
     <row r="154" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A154" s="2"/>
+      <c r="A154" s="1"/>
     </row>
     <row r="155" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A155" s="2"/>
+      <c r="A155" s="1"/>
     </row>
     <row r="156" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
+      <c r="A156" s="1"/>
     </row>
     <row r="157" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
+      <c r="A157" s="1"/>
     </row>
     <row r="158" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A158" s="2"/>
+      <c r="A158" s="1"/>
     </row>
     <row r="159" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
+      <c r="A159" s="1"/>
     </row>
     <row r="160" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
+      <c r="A160" s="1"/>
     </row>
     <row r="161" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A161" s="2"/>
+      <c r="A161" s="1"/>
     </row>
     <row r="162" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
+      <c r="A162" s="1"/>
     </row>
     <row r="163" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
+      <c r="A163" s="1"/>
     </row>
     <row r="164" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
+      <c r="A164" s="1"/>
     </row>
     <row r="165" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
+      <c r="A165" s="1"/>
     </row>
     <row r="166" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
+      <c r="A166" s="1"/>
     </row>
     <row r="167" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
+      <c r="A167" s="1"/>
     </row>
     <row r="168" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
+      <c r="A168" s="1"/>
     </row>
     <row r="169" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A169" s="2"/>
+      <c r="A169" s="1"/>
     </row>
     <row r="170" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
+      <c r="A170" s="1"/>
     </row>
     <row r="171" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
+      <c r="A171" s="1"/>
     </row>
     <row r="172" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A172" s="2"/>
+      <c r="A172" s="1"/>
     </row>
     <row r="173" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A173" s="2"/>
+      <c r="A173" s="1"/>
     </row>
     <row r="174" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A174" s="2"/>
+      <c r="A174" s="1"/>
     </row>
     <row r="175" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
+      <c r="A175" s="1"/>
     </row>
     <row r="176" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A176" s="2"/>
+      <c r="A176" s="1"/>
     </row>
     <row r="177" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A177" s="2"/>
+      <c r="A177" s="1"/>
     </row>
     <row r="178" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A178" s="2"/>
+      <c r="A178" s="1"/>
     </row>
     <row r="179" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A179" s="2"/>
+      <c r="A179" s="1"/>
     </row>
     <row r="180" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
+      <c r="A180" s="1"/>
     </row>
     <row r="181" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
+      <c r="A181" s="1"/>
     </row>
     <row r="182" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A182" s="2"/>
+      <c r="A182" s="1"/>
     </row>
     <row r="183" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A183" s="2"/>
+      <c r="A183" s="1"/>
     </row>
     <row r="184" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A184" s="2"/>
+      <c r="A184" s="1"/>
     </row>
     <row r="185" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A185" s="2"/>
+      <c r="A185" s="1"/>
     </row>
     <row r="186" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A186" s="2"/>
+      <c r="A186" s="1"/>
     </row>
     <row r="187" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A187" s="2"/>
+      <c r="A187" s="1"/>
     </row>
     <row r="188" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A188" s="2"/>
+      <c r="A188" s="1"/>
     </row>
     <row r="189" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A189" s="2"/>
+      <c r="A189" s="1"/>
     </row>
     <row r="190" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A190" s="2"/>
+      <c r="A190" s="1"/>
     </row>
     <row r="191" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A191" s="2"/>
+      <c r="A191" s="1"/>
     </row>
     <row r="192" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A192" s="2"/>
+      <c r="A192" s="1"/>
     </row>
     <row r="193" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A193" s="2"/>
+      <c r="A193" s="1"/>
     </row>
     <row r="194" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A194" s="2"/>
+      <c r="A194" s="1"/>
     </row>
     <row r="195" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A195" s="2"/>
+      <c r="A195" s="1"/>
     </row>
     <row r="196" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A196" s="2"/>
+      <c r="A196" s="1"/>
     </row>
     <row r="197" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A197" s="2"/>
+      <c r="A197" s="1"/>
     </row>
     <row r="198" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A198" s="2"/>
+      <c r="A198" s="1"/>
     </row>
     <row r="199" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A199" s="2"/>
+      <c r="A199" s="1"/>
     </row>
     <row r="200" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A200" s="2"/>
+      <c r="A200" s="1"/>
     </row>
     <row r="201" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A201" s="2"/>
+      <c r="A201" s="1"/>
     </row>
     <row r="202" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A202" s="2"/>
+      <c r="A202" s="1"/>
     </row>
     <row r="203" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A203" s="2"/>
+      <c r="A203" s="1"/>
     </row>
     <row r="204" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A204" s="2"/>
+      <c r="A204" s="1"/>
     </row>
     <row r="205" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A205" s="2"/>
+      <c r="A205" s="1"/>
     </row>
     <row r="206" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A206" s="2"/>
+      <c r="A206" s="1"/>
     </row>
     <row r="207" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A207" s="2"/>
+      <c r="A207" s="1"/>
     </row>
     <row r="208" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A208" s="2"/>
+      <c r="A208" s="1"/>
     </row>
     <row r="209" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A209" s="2"/>
+      <c r="A209" s="1"/>
     </row>
     <row r="210" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A210" s="2"/>
+      <c r="A210" s="1"/>
     </row>
     <row r="211" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A211" s="2"/>
+      <c r="A211" s="1"/>
     </row>
     <row r="212" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A212" s="2"/>
+      <c r="A212" s="1"/>
     </row>
     <row r="213" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A213" s="2"/>
+      <c r="A213" s="1"/>
     </row>
     <row r="214" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A214" s="2"/>
+      <c r="A214" s="1"/>
     </row>
     <row r="215" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A215" s="2"/>
+      <c r="A215" s="1"/>
     </row>
     <row r="216" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A216" s="2"/>
+      <c r="A216" s="1"/>
     </row>
     <row r="217" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A217" s="2"/>
+      <c r="A217" s="1"/>
     </row>
     <row r="218" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A218" s="2"/>
+      <c r="A218" s="1"/>
     </row>
     <row r="219" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A219" s="2"/>
+      <c r="A219" s="1"/>
     </row>
     <row r="220" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A220" s="2"/>
+      <c r="A220" s="1"/>
     </row>
     <row r="221" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A221" s="2"/>
+      <c r="A221" s="1"/>
     </row>
     <row r="222" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A222" s="2"/>
+      <c r="A222" s="1"/>
     </row>
     <row r="223" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A223" s="2"/>
+      <c r="A223" s="1"/>
     </row>
     <row r="224" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A224" s="2"/>
+      <c r="A224" s="1"/>
     </row>
     <row r="225" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A225" s="2"/>
+      <c r="A225" s="1"/>
     </row>
     <row r="226" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A226" s="2"/>
+      <c r="A226" s="1"/>
     </row>
     <row r="227" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A227" s="2"/>
+      <c r="A227" s="1"/>
     </row>
     <row r="228" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A228" s="2"/>
+      <c r="A228" s="1"/>
     </row>
     <row r="229" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A229" s="2"/>
+      <c r="A229" s="1"/>
     </row>
     <row r="230" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A230" s="2"/>
+      <c r="A230" s="1"/>
     </row>
     <row r="231" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A231" s="2"/>
+      <c r="A231" s="1"/>
     </row>
     <row r="232" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A232" s="2"/>
+      <c r="A232" s="1"/>
     </row>
     <row r="233" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A233" s="2"/>
+      <c r="A233" s="1"/>
     </row>
     <row r="234" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A234" s="2"/>
+      <c r="A234" s="1"/>
     </row>
     <row r="235" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A235" s="2"/>
+      <c r="A235" s="1"/>
     </row>
     <row r="236" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A236" s="2"/>
+      <c r="A236" s="1"/>
     </row>
     <row r="237" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A237" s="2"/>
+      <c r="A237" s="1"/>
     </row>
     <row r="238" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A238" s="2"/>
+      <c r="A238" s="1"/>
     </row>
     <row r="239" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A239" s="2"/>
+      <c r="A239" s="1"/>
     </row>
     <row r="240" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A240" s="2"/>
+      <c r="A240" s="1"/>
     </row>
     <row r="241" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A241" s="2"/>
+      <c r="A241" s="1"/>
     </row>
     <row r="242" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A242" s="2"/>
+      <c r="A242" s="1"/>
     </row>
     <row r="243" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A243" s="2"/>
+      <c r="A243" s="1"/>
     </row>
     <row r="244" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A244" s="2"/>
+      <c r="A244" s="1"/>
     </row>
     <row r="245" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A245" s="2"/>
+      <c r="A245" s="1"/>
     </row>
     <row r="246" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A246" s="2"/>
+      <c r="A246" s="1"/>
     </row>
     <row r="247" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A247" s="2"/>
+      <c r="A247" s="1"/>
     </row>
     <row r="248" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A248" s="2"/>
+      <c r="A248" s="1"/>
     </row>
     <row r="249" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A249" s="2"/>
+      <c r="A249" s="1"/>
     </row>
     <row r="250" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A250" s="2"/>
+      <c r="A250" s="1"/>
     </row>
     <row r="251" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A251" s="2"/>
+      <c r="A251" s="1"/>
     </row>
     <row r="252" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A252" s="2"/>
+      <c r="A252" s="1"/>
     </row>
     <row r="253" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A253" s="2"/>
+      <c r="A253" s="1"/>
     </row>
     <row r="254" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A254" s="2"/>
+      <c r="A254" s="1"/>
     </row>
     <row r="255" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A255" s="2"/>
+      <c r="A255" s="1"/>
     </row>
     <row r="256" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A256" s="2"/>
+      <c r="A256" s="1"/>
     </row>
     <row r="257" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A257" s="2"/>
+      <c r="A257" s="1"/>
     </row>
     <row r="258" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A258" s="2"/>
+      <c r="A258" s="1"/>
     </row>
     <row r="259" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A259" s="2"/>
+      <c r="A259" s="1"/>
     </row>
     <row r="260" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A260" s="2"/>
+      <c r="A260" s="1"/>
     </row>
     <row r="261" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A261" s="2"/>
+      <c r="A261" s="1"/>
     </row>
     <row r="262" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A262" s="2"/>
+      <c r="A262" s="1"/>
     </row>
     <row r="263" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A263" s="2"/>
+      <c r="A263" s="1"/>
     </row>
     <row r="264" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A264" s="2"/>
+      <c r="A264" s="1"/>
     </row>
     <row r="265" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A265" s="2"/>
+      <c r="A265" s="1"/>
     </row>
     <row r="266" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A266" s="2"/>
+      <c r="A266" s="1"/>
     </row>
     <row r="267" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A267" s="2"/>
+      <c r="A267" s="1"/>
     </row>
     <row r="268" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A268" s="2"/>
+      <c r="A268" s="1"/>
     </row>
     <row r="269" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A269" s="2"/>
+      <c r="A269" s="1"/>
     </row>
     <row r="270" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A270" s="2"/>
+      <c r="A270" s="1"/>
     </row>
     <row r="271" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A271" s="2"/>
+      <c r="A271" s="1"/>
     </row>
     <row r="272" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A272" s="2"/>
+      <c r="A272" s="1"/>
     </row>
     <row r="273" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A273" s="2"/>
+      <c r="A273" s="1"/>
     </row>
     <row r="274" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A274" s="2"/>
+      <c r="A274" s="1"/>
     </row>
     <row r="275" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A275" s="2"/>
+      <c r="A275" s="1"/>
     </row>
     <row r="276" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A276" s="2"/>
+      <c r="A276" s="1"/>
     </row>
     <row r="277" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A277" s="2"/>
+      <c r="A277" s="1"/>
     </row>
     <row r="278" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A278" s="2"/>
+      <c r="A278" s="1"/>
     </row>
     <row r="279" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A279" s="2"/>
+      <c r="A279" s="1"/>
     </row>
     <row r="280" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A280" s="2"/>
+      <c r="A280" s="1"/>
     </row>
     <row r="281" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A281" s="2"/>
+      <c r="A281" s="1"/>
     </row>
     <row r="282" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A282" s="2"/>
+      <c r="A282" s="1"/>
     </row>
     <row r="283" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A283" s="2"/>
+      <c r="A283" s="1"/>
     </row>
     <row r="284" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A284" s="2"/>
+      <c r="A284" s="1"/>
     </row>
     <row r="285" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A285" s="2"/>
+      <c r="A285" s="1"/>
     </row>
     <row r="286" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A286" s="2"/>
+      <c r="A286" s="1"/>
     </row>
     <row r="287" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A287" s="2"/>
+      <c r="A287" s="1"/>
     </row>
     <row r="288" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A288" s="2"/>
+      <c r="A288" s="1"/>
     </row>
     <row r="289" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A289" s="2"/>
+      <c r="A289" s="1"/>
     </row>
     <row r="290" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A290" s="2"/>
+      <c r="A290" s="1"/>
     </row>
     <row r="291" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A291" s="2"/>
+      <c r="A291" s="1"/>
     </row>
     <row r="292" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A292" s="2"/>
+      <c r="A292" s="1"/>
     </row>
     <row r="293" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A293" s="2"/>
+      <c r="A293" s="1"/>
     </row>
     <row r="294" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A294" s="2"/>
+      <c r="A294" s="1"/>
     </row>
     <row r="295" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A295" s="2"/>
+      <c r="A295" s="1"/>
     </row>
     <row r="296" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A296" s="2"/>
+      <c r="A296" s="1"/>
     </row>
     <row r="297" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A297" s="2"/>
+      <c r="A297" s="1"/>
     </row>
     <row r="298" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A298" s="2"/>
+      <c r="A298" s="1"/>
     </row>
     <row r="299" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A299" s="2"/>
+      <c r="A299" s="1"/>
     </row>
     <row r="300" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A300" s="2"/>
+      <c r="A300" s="1"/>
     </row>
     <row r="301" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A301" s="2"/>
+      <c r="A301" s="1"/>
     </row>
     <row r="302" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A302" s="2"/>
+      <c r="A302" s="1"/>
     </row>
     <row r="303" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A303" s="2"/>
+      <c r="A303" s="1"/>
     </row>
     <row r="304" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A304" s="2"/>
+      <c r="A304" s="1"/>
     </row>
     <row r="305" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A305" s="2"/>
+      <c r="A305" s="1"/>
     </row>
     <row r="306" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A306" s="2"/>
+      <c r="A306" s="1"/>
     </row>
     <row r="307" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A307" s="2"/>
+      <c r="A307" s="1"/>
     </row>
     <row r="308" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A308" s="2"/>
+      <c r="A308" s="1"/>
     </row>
     <row r="309" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A309" s="2"/>
+      <c r="A309" s="1"/>
     </row>
     <row r="310" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A310" s="2"/>
+      <c r="A310" s="1"/>
     </row>
     <row r="311" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A311" s="2"/>
+      <c r="A311" s="1"/>
     </row>
     <row r="312" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A312" s="2"/>
+      <c r="A312" s="1"/>
     </row>
     <row r="313" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A313" s="2"/>
+      <c r="A313" s="1"/>
     </row>
     <row r="314" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A314" s="2"/>
+      <c r="A314" s="1"/>
     </row>
     <row r="315" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A315" s="2"/>
+      <c r="A315" s="1"/>
     </row>
     <row r="316" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A316" s="2"/>
+      <c r="A316" s="1"/>
     </row>
     <row r="317" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A317" s="2"/>
+      <c r="A317" s="1"/>
     </row>
     <row r="318" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A318" s="2"/>
+      <c r="A318" s="1"/>
     </row>
     <row r="319" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A319" s="2"/>
+      <c r="A319" s="1"/>
     </row>
     <row r="320" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A320" s="2"/>
+      <c r="A320" s="1"/>
     </row>
     <row r="321" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A321" s="2"/>
+      <c r="A321" s="1"/>
     </row>
     <row r="322" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A322" s="2"/>
+      <c r="A322" s="1"/>
     </row>
     <row r="323" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A323" s="2"/>
+      <c r="A323" s="1"/>
     </row>
     <row r="324" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A324" s="2"/>
+      <c r="A324" s="1"/>
     </row>
     <row r="325" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A325" s="2"/>
+      <c r="A325" s="1"/>
     </row>
     <row r="326" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A326" s="2"/>
+      <c r="A326" s="1"/>
     </row>
     <row r="327" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A327" s="2"/>
+      <c r="A327" s="1"/>
     </row>
     <row r="328" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A328" s="2"/>
+      <c r="A328" s="1"/>
     </row>
     <row r="329" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A329" s="2"/>
+      <c r="A329" s="1"/>
     </row>
     <row r="330" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A330" s="2"/>
+      <c r="A330" s="1"/>
     </row>
     <row r="331" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A331" s="2"/>
+      <c r="A331" s="1"/>
     </row>
     <row r="332" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A332" s="2"/>
+      <c r="A332" s="1"/>
     </row>
     <row r="333" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A333" s="2"/>
+      <c r="A333" s="1"/>
     </row>
     <row r="334" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A334" s="2"/>
+      <c r="A334" s="1"/>
     </row>
     <row r="335" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A335" s="2"/>
+      <c r="A335" s="1"/>
     </row>
     <row r="336" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A336" s="2"/>
+      <c r="A336" s="1"/>
     </row>
     <row r="337" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A337" s="2"/>
+      <c r="A337" s="1"/>
     </row>
     <row r="338" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A338" s="2"/>
+      <c r="A338" s="1"/>
     </row>
     <row r="339" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A339" s="2"/>
+      <c r="A339" s="1"/>
     </row>
     <row r="340" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A340" s="2"/>
+      <c r="A340" s="1"/>
     </row>
     <row r="341" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A341" s="2"/>
+      <c r="A341" s="1"/>
     </row>
     <row r="342" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A342" s="2"/>
+      <c r="A342" s="1"/>
     </row>
     <row r="343" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A343" s="2"/>
+      <c r="A343" s="1"/>
     </row>
     <row r="344" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A344" s="2"/>
+      <c r="A344" s="1"/>
     </row>
     <row r="345" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A345" s="2"/>
+      <c r="A345" s="1"/>
     </row>
     <row r="346" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A346" s="2"/>
+      <c r="A346" s="1"/>
     </row>
     <row r="347" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A347" s="2"/>
+      <c r="A347" s="1"/>
     </row>
     <row r="348" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A348" s="2"/>
+      <c r="A348" s="1"/>
     </row>
     <row r="349" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A349" s="2"/>
+      <c r="A349" s="1"/>
     </row>
     <row r="350" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A350" s="2"/>
+      <c r="A350" s="1"/>
     </row>
     <row r="351" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A351" s="2"/>
+      <c r="A351" s="1"/>
     </row>
     <row r="352" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A352" s="2"/>
+      <c r="A352" s="1"/>
     </row>
     <row r="353" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A353" s="2"/>
+      <c r="A353" s="1"/>
     </row>
     <row r="354" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A354" s="2"/>
+      <c r="A354" s="1"/>
     </row>
     <row r="355" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A355" s="2"/>
+      <c r="A355" s="1"/>
     </row>
     <row r="356" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A356" s="2"/>
+      <c r="A356" s="1"/>
     </row>
     <row r="357" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A357" s="2"/>
+      <c r="A357" s="1"/>
     </row>
     <row r="358" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A358" s="2"/>
+      <c r="A358" s="1"/>
     </row>
     <row r="359" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A359" s="2"/>
+      <c r="A359" s="1"/>
     </row>
     <row r="360" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A360" s="2"/>
+      <c r="A360" s="1"/>
     </row>
     <row r="361" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A361" s="2"/>
+      <c r="A361" s="1"/>
     </row>
     <row r="362" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A362" s="2"/>
+      <c r="A362" s="1"/>
     </row>
     <row r="363" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A363" s="2"/>
+      <c r="A363" s="1"/>
     </row>
     <row r="364" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A364" s="2"/>
+      <c r="A364" s="1"/>
     </row>
     <row r="365" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A365" s="2"/>
+      <c r="A365" s="1"/>
     </row>
     <row r="366" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A366" s="2"/>
+      <c r="A366" s="1"/>
     </row>
     <row r="367" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A367" s="2"/>
+      <c r="A367" s="1"/>
     </row>
     <row r="368" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A368" s="2"/>
+      <c r="A368" s="1"/>
     </row>
     <row r="369" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A369" s="2"/>
+      <c r="A369" s="1"/>
     </row>
     <row r="370" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A370" s="2"/>
+      <c r="A370" s="1"/>
     </row>
     <row r="371" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A371" s="2"/>
+      <c r="A371" s="1"/>
     </row>
     <row r="372" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A372" s="2"/>
+      <c r="A372" s="1"/>
     </row>
     <row r="373" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A373" s="2"/>
+      <c r="A373" s="1"/>
     </row>
     <row r="374" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A374" s="2"/>
+      <c r="A374" s="1"/>
     </row>
     <row r="375" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A375" s="2"/>
+      <c r="A375" s="1"/>
     </row>
     <row r="376" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A376" s="2"/>
+      <c r="A376" s="1"/>
     </row>
     <row r="377" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A377" s="2"/>
+      <c r="A377" s="1"/>
     </row>
     <row r="378" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A378" s="2"/>
+      <c r="A378" s="1"/>
     </row>
     <row r="379" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A379" s="2"/>
+      <c r="A379" s="1"/>
     </row>
     <row r="380" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A380" s="2"/>
+      <c r="A380" s="1"/>
     </row>
     <row r="381" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A381" s="2"/>
+      <c r="A381" s="1"/>
     </row>
     <row r="382" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A382" s="2"/>
+      <c r="A382" s="1"/>
     </row>
     <row r="383" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A383" s="2"/>
+      <c r="A383" s="1"/>
     </row>
     <row r="384" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A384" s="2"/>
+      <c r="A384" s="1"/>
     </row>
     <row r="385" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A385" s="2"/>
+      <c r="A385" s="1"/>
     </row>
     <row r="386" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A386" s="2"/>
+      <c r="A386" s="1"/>
     </row>
     <row r="387" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A387" s="2"/>
+      <c r="A387" s="1"/>
     </row>
     <row r="388" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A388" s="2"/>
+      <c r="A388" s="1"/>
     </row>
     <row r="389" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A389" s="2"/>
+      <c r="A389" s="1"/>
     </row>
     <row r="390" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A390" s="2"/>
+      <c r="A390" s="1"/>
     </row>
     <row r="391" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A391" s="2"/>
+      <c r="A391" s="1"/>
     </row>
     <row r="392" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A392" s="2"/>
+      <c r="A392" s="1"/>
     </row>
     <row r="393" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A393" s="2"/>
+      <c r="A393" s="1"/>
     </row>
     <row r="394" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A394" s="2"/>
+      <c r="A394" s="1"/>
     </row>
     <row r="395" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A395" s="2"/>
+      <c r="A395" s="1"/>
     </row>
     <row r="396" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A396" s="2"/>
+      <c r="A396" s="1"/>
     </row>
     <row r="397" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A397" s="2"/>
+      <c r="A397" s="1"/>
     </row>
     <row r="398" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A398" s="2"/>
+      <c r="A398" s="1"/>
     </row>
     <row r="399" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A399" s="2"/>
+      <c r="A399" s="1"/>
     </row>
     <row r="400" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A400" s="2"/>
+      <c r="A400" s="1"/>
     </row>
     <row r="401" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A401" s="2"/>
+      <c r="A401" s="1"/>
     </row>
     <row r="402" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A402" s="2"/>
+      <c r="A402" s="1"/>
     </row>
     <row r="403" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A403" s="2"/>
+      <c r="A403" s="1"/>
     </row>
     <row r="404" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A404" s="2"/>
+      <c r="A404" s="1"/>
     </row>
     <row r="405" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A405" s="2"/>
+      <c r="A405" s="1"/>
     </row>
     <row r="406" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A406" s="2"/>
+      <c r="A406" s="1"/>
     </row>
     <row r="407" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A407" s="2"/>
+      <c r="A407" s="1"/>
     </row>
     <row r="408" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A408" s="2"/>
+      <c r="A408" s="1"/>
     </row>
     <row r="409" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A409" s="2"/>
+      <c r="A409" s="1"/>
     </row>
     <row r="410" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A410" s="2"/>
+      <c r="A410" s="1"/>
     </row>
     <row r="411" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A411" s="2"/>
+      <c r="A411" s="1"/>
     </row>
     <row r="412" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A412" s="2"/>
+      <c r="A412" s="1"/>
     </row>
     <row r="413" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A413" s="2"/>
+      <c r="A413" s="1"/>
     </row>
     <row r="414" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A414" s="2"/>
+      <c r="A414" s="1"/>
     </row>
     <row r="415" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A415" s="2"/>
+      <c r="A415" s="1"/>
     </row>
     <row r="416" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A416" s="2"/>
+      <c r="A416" s="1"/>
     </row>
     <row r="417" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A417" s="2"/>
+      <c r="A417" s="1"/>
     </row>
     <row r="418" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A418" s="2"/>
+      <c r="A418" s="1"/>
     </row>
     <row r="419" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A419" s="2"/>
+      <c r="A419" s="1"/>
     </row>
     <row r="420" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A420" s="2"/>
+      <c r="A420" s="1"/>
     </row>
     <row r="421" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A421" s="2"/>
+      <c r="A421" s="1"/>
     </row>
     <row r="422" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A422" s="2"/>
+      <c r="A422" s="1"/>
     </row>
     <row r="423" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A423" s="2"/>
+      <c r="A423" s="1"/>
     </row>
     <row r="424" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A424" s="2"/>
+      <c r="A424" s="1"/>
     </row>
     <row r="425" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A425" s="2"/>
+      <c r="A425" s="1"/>
     </row>
     <row r="426" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A426" s="2"/>
+      <c r="A426" s="1"/>
     </row>
     <row r="427" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A427" s="2"/>
+      <c r="A427" s="1"/>
     </row>
     <row r="428" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A428" s="2"/>
+      <c r="A428" s="1"/>
     </row>
     <row r="429" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A429" s="2"/>
+      <c r="A429" s="1"/>
     </row>
     <row r="430" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A430" s="2"/>
+      <c r="A430" s="1"/>
     </row>
     <row r="431" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A431" s="2"/>
+      <c r="A431" s="1"/>
     </row>
     <row r="432" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A432" s="2"/>
+      <c r="A432" s="1"/>
     </row>
     <row r="433" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A433" s="2"/>
+      <c r="A433" s="1"/>
     </row>
     <row r="434" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A434" s="2"/>
+      <c r="A434" s="1"/>
     </row>
     <row r="435" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A435" s="2"/>
+      <c r="A435" s="1"/>
     </row>
     <row r="436" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A436" s="2"/>
+      <c r="A436" s="1"/>
     </row>
     <row r="437" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A437" s="2"/>
+      <c r="A437" s="1"/>
     </row>
     <row r="438" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A438" s="2"/>
+      <c r="A438" s="1"/>
     </row>
     <row r="439" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A439" s="2"/>
+      <c r="A439" s="1"/>
     </row>
     <row r="440" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A440" s="2"/>
+      <c r="A440" s="1"/>
     </row>
     <row r="441" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A441" s="2"/>
+      <c r="A441" s="1"/>
     </row>
     <row r="442" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A442" s="2"/>
+      <c r="A442" s="1"/>
     </row>
     <row r="443" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A443" s="2"/>
+      <c r="A443" s="1"/>
     </row>
     <row r="444" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A444" s="2"/>
+      <c r="A444" s="1"/>
     </row>
     <row r="445" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A445" s="2"/>
+      <c r="A445" s="1"/>
     </row>
     <row r="446" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A446" s="2"/>
+      <c r="A446" s="1"/>
     </row>
     <row r="447" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A447" s="2"/>
+      <c r="A447" s="1"/>
     </row>
     <row r="448" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A448" s="2"/>
+      <c r="A448" s="1"/>
     </row>
     <row r="449" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A449" s="2"/>
+      <c r="A449" s="1"/>
     </row>
     <row r="450" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A450" s="2"/>
+      <c r="A450" s="1"/>
     </row>
     <row r="451" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A451" s="2"/>
+      <c r="A451" s="1"/>
     </row>
     <row r="452" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A452" s="2"/>
+      <c r="A452" s="1"/>
     </row>
     <row r="453" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A453" s="2"/>
+      <c r="A453" s="1"/>
     </row>
     <row r="454" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A454" s="2"/>
+      <c r="A454" s="1"/>
     </row>
     <row r="455" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A455" s="2"/>
+      <c r="A455" s="1"/>
     </row>
     <row r="456" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A456" s="2"/>
+      <c r="A456" s="1"/>
     </row>
     <row r="457" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A457" s="2"/>
+      <c r="A457" s="1"/>
     </row>
     <row r="458" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A458" s="2"/>
+      <c r="A458" s="1"/>
     </row>
     <row r="459" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A459" s="2"/>
+      <c r="A459" s="1"/>
     </row>
     <row r="460" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A460" s="2"/>
+      <c r="A460" s="1"/>
     </row>
     <row r="461" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A461" s="2"/>
+      <c r="A461" s="1"/>
     </row>
     <row r="462" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A462" s="2"/>
+      <c r="A462" s="1"/>
     </row>
     <row r="463" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A463" s="2"/>
+      <c r="A463" s="1"/>
     </row>
     <row r="464" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A464" s="2"/>
+      <c r="A464" s="1"/>
     </row>
     <row r="465" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A465" s="2"/>
+      <c r="A465" s="1"/>
     </row>
     <row r="466" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A466" s="2"/>
+      <c r="A466" s="1"/>
     </row>
     <row r="467" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A467" s="2"/>
+      <c r="A467" s="1"/>
     </row>
     <row r="468" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A468" s="2"/>
+      <c r="A468" s="1"/>
     </row>
     <row r="469" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A469" s="2"/>
+      <c r="A469" s="1"/>
     </row>
     <row r="470" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A470" s="2"/>
+      <c r="A470" s="1"/>
     </row>
     <row r="471" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A471" s="2"/>
+      <c r="A471" s="1"/>
     </row>
     <row r="472" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A472" s="2"/>
+      <c r="A472" s="1"/>
     </row>
     <row r="473" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A473" s="2"/>
+      <c r="A473" s="1"/>
     </row>
     <row r="474" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A474" s="2"/>
+      <c r="A474" s="1"/>
     </row>
     <row r="475" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A475" s="2"/>
+      <c r="A475" s="1"/>
     </row>
     <row r="476" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A476" s="2"/>
+      <c r="A476" s="1"/>
     </row>
     <row r="477" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A477" s="2"/>
+      <c r="A477" s="1"/>
     </row>
     <row r="478" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A478" s="2"/>
+      <c r="A478" s="1"/>
     </row>
     <row r="479" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A479" s="2"/>
+      <c r="A479" s="1"/>
     </row>
     <row r="480" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A480" s="2"/>
+      <c r="A480" s="1"/>
     </row>
     <row r="481" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A481" s="2"/>
+      <c r="A481" s="1"/>
     </row>
     <row r="482" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A482" s="2"/>
+      <c r="A482" s="1"/>
     </row>
     <row r="483" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A483" s="2"/>
+      <c r="A483" s="1"/>
     </row>
     <row r="484" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A484" s="2"/>
+      <c r="A484" s="1"/>
     </row>
     <row r="485" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A485" s="2"/>
+      <c r="A485" s="1"/>
     </row>
     <row r="486" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A486" s="2"/>
+      <c r="A486" s="1"/>
     </row>
     <row r="487" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A487" s="2"/>
+      <c r="A487" s="1"/>
     </row>
     <row r="488" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A488" s="2"/>
+      <c r="A488" s="1"/>
     </row>
     <row r="489" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A489" s="2"/>
+      <c r="A489" s="1"/>
     </row>
     <row r="490" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A490" s="2"/>
+      <c r="A490" s="1"/>
     </row>
     <row r="491" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A491" s="2"/>
+      <c r="A491" s="1"/>
     </row>
     <row r="492" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A492" s="2"/>
+      <c r="A492" s="1"/>
     </row>
     <row r="493" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A493" s="2"/>
+      <c r="A493" s="1"/>
     </row>
     <row r="494" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A494" s="2"/>
+      <c r="A494" s="1"/>
     </row>
     <row r="495" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A495" s="2"/>
+      <c r="A495" s="1"/>
     </row>
     <row r="496" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A496" s="2"/>
+      <c r="A496" s="1"/>
     </row>
     <row r="497" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A497" s="2"/>
+      <c r="A497" s="1"/>
     </row>
     <row r="498" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A498" s="2"/>
+      <c r="A498" s="1"/>
     </row>
     <row r="499" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A499" s="2"/>
+      <c r="A499" s="1"/>
     </row>
     <row r="500" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A500" s="2"/>
+      <c r="A500" s="1"/>
     </row>
     <row r="501" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A501" s="2"/>
+      <c r="A501" s="1"/>
     </row>
     <row r="502" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A502" s="2"/>
+      <c r="A502" s="1"/>
     </row>
     <row r="503" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A503" s="2"/>
+      <c r="A503" s="1"/>
     </row>
     <row r="504" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A504" s="2"/>
+      <c r="A504" s="1"/>
     </row>
     <row r="505" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A505" s="2"/>
+      <c r="A505" s="1"/>
     </row>
     <row r="506" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A506" s="2"/>
+      <c r="A506" s="1"/>
     </row>
     <row r="507" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A507" s="2"/>
+      <c r="A507" s="1"/>
     </row>
     <row r="508" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A508" s="2"/>
+      <c r="A508" s="1"/>
     </row>
     <row r="509" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A509" s="2"/>
+      <c r="A509" s="1"/>
     </row>
     <row r="510" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A510" s="2"/>
+      <c r="A510" s="1"/>
     </row>
     <row r="511" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A511" s="2"/>
+      <c r="A511" s="1"/>
     </row>
     <row r="512" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A512" s="2"/>
+      <c r="A512" s="1"/>
     </row>
     <row r="513" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A513" s="2"/>
+      <c r="A513" s="1"/>
     </row>
     <row r="514" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A514" s="2"/>
+      <c r="A514" s="1"/>
     </row>
     <row r="515" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A515" s="2"/>
+      <c r="A515" s="1"/>
     </row>
     <row r="516" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A516" s="2"/>
+      <c r="A516" s="1"/>
     </row>
     <row r="517" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A517" s="2"/>
+      <c r="A517" s="1"/>
     </row>
     <row r="518" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A518" s="2"/>
+      <c r="A518" s="1"/>
     </row>
     <row r="519" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A519" s="2"/>
+      <c r="A519" s="1"/>
     </row>
     <row r="520" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A520" s="2"/>
+      <c r="A520" s="1"/>
     </row>
     <row r="521" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A521" s="2"/>
+      <c r="A521" s="1"/>
     </row>
     <row r="522" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A522" s="2"/>
+      <c r="A522" s="1"/>
     </row>
     <row r="523" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A523" s="2"/>
+      <c r="A523" s="1"/>
     </row>
     <row r="524" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A524" s="2"/>
+      <c r="A524" s="1"/>
     </row>
     <row r="525" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A525" s="2"/>
+      <c r="A525" s="1"/>
     </row>
     <row r="526" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A526" s="2"/>
+      <c r="A526" s="1"/>
     </row>
     <row r="527" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A527" s="2"/>
+      <c r="A527" s="1"/>
     </row>
     <row r="528" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A528" s="2"/>
+      <c r="A528" s="1"/>
     </row>
     <row r="529" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A529" s="2"/>
+      <c r="A529" s="1"/>
     </row>
     <row r="530" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A530" s="2"/>
+      <c r="A530" s="1"/>
     </row>
     <row r="531" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A531" s="2"/>
+      <c r="A531" s="1"/>
     </row>
     <row r="532" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A532" s="2"/>
+      <c r="A532" s="1"/>
     </row>
     <row r="533" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A533" s="2"/>
+      <c r="A533" s="1"/>
     </row>
     <row r="534" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A534" s="2"/>
+      <c r="A534" s="1"/>
     </row>
     <row r="535" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A535" s="2"/>
+      <c r="A535" s="1"/>
     </row>
     <row r="536" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A536" s="2"/>
+      <c r="A536" s="1"/>
     </row>
     <row r="537" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A537" s="2"/>
+      <c r="A537" s="1"/>
     </row>
     <row r="538" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A538" s="2"/>
+      <c r="A538" s="1"/>
     </row>
     <row r="539" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A539" s="2"/>
+      <c r="A539" s="1"/>
     </row>
     <row r="540" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A540" s="2"/>
+      <c r="A540" s="1"/>
     </row>
     <row r="541" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A541" s="2"/>
+      <c r="A541" s="1"/>
     </row>
     <row r="542" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A542" s="2"/>
+      <c r="A542" s="1"/>
     </row>
     <row r="543" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A543" s="2"/>
+      <c r="A543" s="1"/>
     </row>
     <row r="544" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A544" s="2"/>
+      <c r="A544" s="1"/>
     </row>
     <row r="545" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A545" s="2"/>
+      <c r="A545" s="1"/>
     </row>
     <row r="546" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A546" s="2"/>
+      <c r="A546" s="1"/>
     </row>
     <row r="547" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A547" s="2"/>
+      <c r="A547" s="1"/>
     </row>
     <row r="548" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A548" s="2"/>
+      <c r="A548" s="1"/>
     </row>
     <row r="549" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A549" s="2"/>
+      <c r="A549" s="1"/>
     </row>
     <row r="550" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A550" s="2"/>
+      <c r="A550" s="1"/>
     </row>
     <row r="551" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A551" s="2"/>
+      <c r="A551" s="1"/>
     </row>
     <row r="552" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A552" s="2"/>
+      <c r="A552" s="1"/>
     </row>
     <row r="553" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A553" s="2"/>
+      <c r="A553" s="1"/>
     </row>
     <row r="554" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A554" s="2"/>
+      <c r="A554" s="1"/>
     </row>
     <row r="555" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A555" s="2"/>
+      <c r="A555" s="1"/>
     </row>
     <row r="556" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A556" s="2"/>
+      <c r="A556" s="1"/>
     </row>
     <row r="557" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A557" s="2"/>
+      <c r="A557" s="1"/>
     </row>
     <row r="558" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A558" s="2"/>
+      <c r="A558" s="1"/>
     </row>
     <row r="559" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A559" s="2"/>
+      <c r="A559" s="1"/>
     </row>
     <row r="560" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A560" s="2"/>
+      <c r="A560" s="1"/>
     </row>
     <row r="561" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A561" s="2"/>
+      <c r="A561" s="1"/>
     </row>
     <row r="562" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A562" s="2"/>
+      <c r="A562" s="1"/>
     </row>
     <row r="563" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A563" s="2"/>
+      <c r="A563" s="1"/>
     </row>
     <row r="564" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A564" s="2"/>
+      <c r="A564" s="1"/>
     </row>
     <row r="565" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A565" s="2"/>
+      <c r="A565" s="1"/>
     </row>
     <row r="566" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A566" s="2"/>
+      <c r="A566" s="1"/>
     </row>
     <row r="567" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A567" s="2"/>
+      <c r="A567" s="1"/>
     </row>
     <row r="568" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A568" s="2"/>
+      <c r="A568" s="1"/>
     </row>
     <row r="569" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A569" s="2"/>
+      <c r="A569" s="1"/>
     </row>
     <row r="570" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A570" s="2"/>
+      <c r="A570" s="1"/>
     </row>
     <row r="571" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A571" s="2"/>
+      <c r="A571" s="1"/>
     </row>
     <row r="572" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A572" s="2"/>
+      <c r="A572" s="1"/>
     </row>
     <row r="573" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A573" s="2"/>
+      <c r="A573" s="1"/>
     </row>
     <row r="574" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A574" s="2"/>
+      <c r="A574" s="1"/>
     </row>
     <row r="575" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A575" s="2"/>
+      <c r="A575" s="1"/>
     </row>
     <row r="576" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A576" s="2"/>
+      <c r="A576" s="1"/>
     </row>
     <row r="577" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A577" s="2"/>
+      <c r="A577" s="1"/>
     </row>
     <row r="578" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A578" s="2"/>
+      <c r="A578" s="1"/>
     </row>
     <row r="579" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A579" s="2"/>
+      <c r="A579" s="1"/>
     </row>
     <row r="580" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A580" s="2"/>
+      <c r="A580" s="1"/>
     </row>
     <row r="581" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A581" s="2"/>
+      <c r="A581" s="1"/>
     </row>
     <row r="582" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A582" s="2"/>
+      <c r="A582" s="1"/>
     </row>
     <row r="583" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A583" s="2"/>
+      <c r="A583" s="1"/>
     </row>
     <row r="584" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A584" s="2"/>
+      <c r="A584" s="1"/>
     </row>
     <row r="585" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A585" s="2"/>
+      <c r="A585" s="1"/>
     </row>
     <row r="586" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A586" s="2"/>
+      <c r="A586" s="1"/>
     </row>
     <row r="587" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A587" s="2"/>
+      <c r="A587" s="1"/>
     </row>
     <row r="588" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A588" s="2"/>
+      <c r="A588" s="1"/>
     </row>
     <row r="589" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A589" s="2"/>
+      <c r="A589" s="1"/>
     </row>
     <row r="590" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A590" s="2"/>
+      <c r="A590" s="1"/>
     </row>
     <row r="591" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A591" s="2"/>
+      <c r="A591" s="1"/>
     </row>
     <row r="592" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A592" s="2"/>
+      <c r="A592" s="1"/>
     </row>
     <row r="593" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A593" s="2"/>
+      <c r="A593" s="1"/>
     </row>
     <row r="594" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A594" s="2"/>
+      <c r="A594" s="1"/>
     </row>
     <row r="595" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A595" s="2"/>
+      <c r="A595" s="1"/>
     </row>
     <row r="596" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A596" s="2"/>
+      <c r="A596" s="1"/>
     </row>
     <row r="597" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A597" s="2"/>
+      <c r="A597" s="1"/>
     </row>
     <row r="598" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A598" s="2"/>
+      <c r="A598" s="1"/>
     </row>
     <row r="599" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A599" s="2"/>
+      <c r="A599" s="1"/>
     </row>
     <row r="600" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A600" s="2"/>
+      <c r="A600" s="1"/>
     </row>
     <row r="601" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A601" s="2"/>
+      <c r="A601" s="1"/>
     </row>
     <row r="602" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A602" s="2"/>
+      <c r="A602" s="1"/>
     </row>
     <row r="603" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A603" s="2"/>
+      <c r="A603" s="1"/>
     </row>
     <row r="604" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A604" s="2"/>
+      <c r="A604" s="1"/>
     </row>
     <row r="605" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A605" s="2"/>
+      <c r="A605" s="1"/>
     </row>
     <row r="606" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A606" s="2"/>
+      <c r="A606" s="1"/>
     </row>
     <row r="607" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A607" s="2"/>
+      <c r="A607" s="1"/>
     </row>
     <row r="608" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A608" s="2"/>
+      <c r="A608" s="1"/>
     </row>
     <row r="609" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A609" s="2"/>
+      <c r="A609" s="1"/>
     </row>
     <row r="610" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A610" s="2"/>
+      <c r="A610" s="1"/>
     </row>
     <row r="611" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A611" s="2"/>
+      <c r="A611" s="1"/>
     </row>
     <row r="612" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A612" s="2"/>
+      <c r="A612" s="1"/>
     </row>
     <row r="613" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A613" s="2"/>
+      <c r="A613" s="1"/>
     </row>
     <row r="614" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A614" s="2"/>
+      <c r="A614" s="1"/>
     </row>
     <row r="615" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A615" s="2"/>
+      <c r="A615" s="1"/>
     </row>
     <row r="616" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A616" s="2"/>
+      <c r="A616" s="1"/>
     </row>
     <row r="617" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A617" s="2"/>
+      <c r="A617" s="1"/>
     </row>
     <row r="618" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A618" s="2"/>
+      <c r="A618" s="1"/>
     </row>
     <row r="619" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A619" s="2"/>
+      <c r="A619" s="1"/>
     </row>
     <row r="620" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A620" s="2"/>
+      <c r="A620" s="1"/>
     </row>
     <row r="621" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A621" s="2"/>
+      <c r="A621" s="1"/>
     </row>
     <row r="622" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A622" s="2"/>
+      <c r="A622" s="1"/>
     </row>
     <row r="623" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A623" s="2"/>
+      <c r="A623" s="1"/>
     </row>
     <row r="624" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A624" s="2"/>
+      <c r="A624" s="1"/>
     </row>
     <row r="625" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A625" s="2"/>
+      <c r="A625" s="1"/>
     </row>
     <row r="626" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A626" s="2"/>
+      <c r="A626" s="1"/>
     </row>
     <row r="627" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A627" s="2"/>
+      <c r="A627" s="1"/>
     </row>
     <row r="628" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A628" s="2"/>
+      <c r="A628" s="1"/>
     </row>
     <row r="629" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A629" s="2"/>
+      <c r="A629" s="1"/>
     </row>
     <row r="630" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A630" s="2"/>
+      <c r="A630" s="1"/>
     </row>
     <row r="631" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A631" s="2"/>
+      <c r="A631" s="1"/>
     </row>
     <row r="632" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A632" s="2"/>
+      <c r="A632" s="1"/>
     </row>
     <row r="633" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A633" s="2"/>
+      <c r="A633" s="1"/>
     </row>
     <row r="634" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A634" s="2"/>
+      <c r="A634" s="1"/>
     </row>
     <row r="635" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A635" s="2"/>
+      <c r="A635" s="1"/>
     </row>
     <row r="636" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A636" s="2"/>
+      <c r="A636" s="1"/>
     </row>
     <row r="637" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A637" s="2"/>
+      <c r="A637" s="1"/>
     </row>
     <row r="638" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A638" s="2"/>
+      <c r="A638" s="1"/>
     </row>
     <row r="639" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A639" s="2"/>
+      <c r="A639" s="1"/>
     </row>
     <row r="640" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A640" s="2"/>
+      <c r="A640" s="1"/>
     </row>
     <row r="641" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A641" s="2"/>
+      <c r="A641" s="1"/>
     </row>
     <row r="642" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A642" s="2"/>
+      <c r="A642" s="1"/>
     </row>
     <row r="643" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A643" s="2"/>
+      <c r="A643" s="1"/>
     </row>
     <row r="644" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A644" s="2"/>
+      <c r="A644" s="1"/>
     </row>
     <row r="645" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A645" s="2"/>
+      <c r="A645" s="1"/>
     </row>
     <row r="646" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A646" s="2"/>
+      <c r="A646" s="1"/>
     </row>
     <row r="647" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A647" s="2"/>
+      <c r="A647" s="1"/>
     </row>
     <row r="648" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A648" s="2"/>
+      <c r="A648" s="1"/>
     </row>
     <row r="649" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A649" s="2"/>
+      <c r="A649" s="1"/>
     </row>
     <row r="650" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A650" s="2"/>
+      <c r="A650" s="1"/>
     </row>
     <row r="651" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A651" s="2"/>
+      <c r="A651" s="1"/>
     </row>
     <row r="652" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A652" s="2"/>
+      <c r="A652" s="1"/>
     </row>
     <row r="653" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A653" s="2"/>
+      <c r="A653" s="1"/>
     </row>
     <row r="654" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A654" s="2"/>
+      <c r="A654" s="1"/>
     </row>
     <row r="655" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A655" s="2"/>
+      <c r="A655" s="1"/>
     </row>
     <row r="656" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A656" s="2"/>
+      <c r="A656" s="1"/>
     </row>
     <row r="657" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A657" s="2"/>
+      <c r="A657" s="1"/>
     </row>
     <row r="658" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A658" s="2"/>
+      <c r="A658" s="1"/>
     </row>
     <row r="659" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A659" s="2"/>
+      <c r="A659" s="1"/>
     </row>
     <row r="660" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A660" s="2"/>
+      <c r="A660" s="1"/>
     </row>
     <row r="661" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A661" s="2"/>
+      <c r="A661" s="1"/>
     </row>
     <row r="662" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A662" s="2"/>
+      <c r="A662" s="1"/>
     </row>
     <row r="663" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A663" s="2"/>
+      <c r="A663" s="1"/>
     </row>
     <row r="664" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A664" s="2"/>
+      <c r="A664" s="1"/>
     </row>
     <row r="665" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A665" s="2"/>
+      <c r="A665" s="1"/>
     </row>
     <row r="666" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A666" s="2"/>
+      <c r="A666" s="1"/>
     </row>
     <row r="667" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A667" s="2"/>
+      <c r="A667" s="1"/>
     </row>
     <row r="668" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A668" s="2"/>
+      <c r="A668" s="1"/>
     </row>
     <row r="669" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A669" s="2"/>
+      <c r="A669" s="1"/>
     </row>
     <row r="670" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A670" s="2"/>
+      <c r="A670" s="1"/>
     </row>
     <row r="671" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A671" s="2"/>
+      <c r="A671" s="1"/>
     </row>
     <row r="672" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A672" s="2"/>
+      <c r="A672" s="1"/>
     </row>
     <row r="673" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A673" s="2"/>
+      <c r="A673" s="1"/>
     </row>
     <row r="674" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A674" s="2"/>
+      <c r="A674" s="1"/>
     </row>
     <row r="675" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A675" s="2"/>
+      <c r="A675" s="1"/>
     </row>
     <row r="676" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A676" s="2"/>
+      <c r="A676" s="1"/>
     </row>
     <row r="677" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A677" s="2"/>
+      <c r="A677" s="1"/>
     </row>
     <row r="678" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A678" s="2"/>
+      <c r="A678" s="1"/>
     </row>
     <row r="679" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A679" s="2"/>
+      <c r="A679" s="1"/>
     </row>
     <row r="680" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A680" s="2"/>
+      <c r="A680" s="1"/>
     </row>
     <row r="681" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A681" s="2"/>
+      <c r="A681" s="1"/>
     </row>
     <row r="682" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A682" s="2"/>
+      <c r="A682" s="1"/>
     </row>
     <row r="683" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A683" s="2"/>
+      <c r="A683" s="1"/>
     </row>
     <row r="684" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A684" s="2"/>
+      <c r="A684" s="1"/>
     </row>
     <row r="685" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A685" s="2"/>
+      <c r="A685" s="1"/>
     </row>
     <row r="686" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A686" s="2"/>
+      <c r="A686" s="1"/>
     </row>
     <row r="687" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A687" s="2"/>
+      <c r="A687" s="1"/>
     </row>
     <row r="688" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A688" s="2"/>
+      <c r="A688" s="1"/>
     </row>
     <row r="689" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A689" s="2"/>
+      <c r="A689" s="1"/>
     </row>
     <row r="690" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A690" s="2"/>
+      <c r="A690" s="1"/>
     </row>
     <row r="691" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A691" s="2"/>
+      <c r="A691" s="1"/>
     </row>
     <row r="692" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A692" s="2"/>
+      <c r="A692" s="1"/>
     </row>
     <row r="693" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A693" s="2"/>
+      <c r="A693" s="1"/>
     </row>
     <row r="694" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A694" s="2"/>
+      <c r="A694" s="1"/>
     </row>
     <row r="695" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A695" s="2"/>
+      <c r="A695" s="1"/>
     </row>
     <row r="696" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A696" s="2"/>
+      <c r="A696" s="1"/>
     </row>
     <row r="697" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A697" s="2"/>
+      <c r="A697" s="1"/>
     </row>
     <row r="698" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A698" s="2"/>
+      <c r="A698" s="1"/>
     </row>
     <row r="699" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A699" s="2"/>
+      <c r="A699" s="1"/>
     </row>
     <row r="700" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A700" s="2"/>
+      <c r="A700" s="1"/>
     </row>
     <row r="701" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A701" s="2"/>
+      <c r="A701" s="1"/>
     </row>
     <row r="702" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A702" s="2"/>
+      <c r="A702" s="1"/>
     </row>
     <row r="703" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A703" s="2"/>
+      <c r="A703" s="1"/>
     </row>
     <row r="704" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A704" s="2"/>
+      <c r="A704" s="1"/>
     </row>
     <row r="705" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A705" s="2"/>
+      <c r="A705" s="1"/>
     </row>
     <row r="706" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A706" s="2"/>
+      <c r="A706" s="1"/>
     </row>
     <row r="707" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A707" s="2"/>
+      <c r="A707" s="1"/>
     </row>
     <row r="708" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A708" s="2"/>
+      <c r="A708" s="1"/>
     </row>
     <row r="709" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A709" s="2"/>
+      <c r="A709" s="1"/>
     </row>
     <row r="710" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A710" s="2"/>
+      <c r="A710" s="1"/>
     </row>
     <row r="711" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A711" s="2"/>
+      <c r="A711" s="1"/>
     </row>
     <row r="712" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A712" s="2"/>
+      <c r="A712" s="1"/>
     </row>
     <row r="713" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A713" s="2"/>
+      <c r="A713" s="1"/>
     </row>
     <row r="714" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A714" s="2"/>
+      <c r="A714" s="1"/>
     </row>
     <row r="715" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A715" s="2"/>
+      <c r="A715" s="1"/>
     </row>
     <row r="716" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A716" s="2"/>
+      <c r="A716" s="1"/>
     </row>
     <row r="717" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A717" s="2"/>
+      <c r="A717" s="1"/>
     </row>
     <row r="718" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A718" s="2"/>
+      <c r="A718" s="1"/>
     </row>
     <row r="719" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A719" s="2"/>
+      <c r="A719" s="1"/>
     </row>
     <row r="720" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A720" s="2"/>
+      <c r="A720" s="1"/>
     </row>
     <row r="721" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A721" s="2"/>
+      <c r="A721" s="1"/>
     </row>
     <row r="722" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A722" s="2"/>
+      <c r="A722" s="1"/>
     </row>
     <row r="723" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A723" s="2"/>
+      <c r="A723" s="1"/>
     </row>
     <row r="724" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A724" s="2"/>
+      <c r="A724" s="1"/>
     </row>
     <row r="725" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A725" s="2"/>
+      <c r="A725" s="1"/>
     </row>
     <row r="726" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A726" s="2"/>
+      <c r="A726" s="1"/>
     </row>
     <row r="727" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A727" s="2"/>
+      <c r="A727" s="1"/>
     </row>
     <row r="728" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A728" s="2"/>
+      <c r="A728" s="1"/>
     </row>
     <row r="729" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A729" s="2"/>
+      <c r="A729" s="1"/>
     </row>
     <row r="730" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A730" s="2"/>
+      <c r="A730" s="1"/>
     </row>
     <row r="731" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A731" s="2"/>
+      <c r="A731" s="1"/>
     </row>
     <row r="732" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A732" s="2"/>
+      <c r="A732" s="1"/>
     </row>
     <row r="733" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A733" s="2"/>
+      <c r="A733" s="1"/>
     </row>
     <row r="734" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A734" s="2"/>
+      <c r="A734" s="1"/>
     </row>
     <row r="735" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A735" s="2"/>
+      <c r="A735" s="1"/>
     </row>
     <row r="736" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A736" s="2"/>
+      <c r="A736" s="1"/>
     </row>
     <row r="737" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A737" s="2"/>
+      <c r="A737" s="1"/>
     </row>
     <row r="738" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A738" s="2"/>
+      <c r="A738" s="1"/>
     </row>
     <row r="739" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A739" s="2"/>
+      <c r="A739" s="1"/>
     </row>
     <row r="740" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A740" s="2"/>
+      <c r="A740" s="1"/>
     </row>
     <row r="741" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A741" s="2"/>
+      <c r="A741" s="1"/>
     </row>
     <row r="742" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A742" s="2"/>
+      <c r="A742" s="1"/>
     </row>
     <row r="743" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A743" s="2"/>
+      <c r="A743" s="1"/>
     </row>
     <row r="744" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A744" s="2"/>
+      <c r="A744" s="1"/>
     </row>
     <row r="745" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A745" s="2"/>
+      <c r="A745" s="1"/>
     </row>
     <row r="746" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A746" s="2"/>
+      <c r="A746" s="1"/>
     </row>
     <row r="747" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A747" s="2"/>
+      <c r="A747" s="1"/>
     </row>
     <row r="748" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A748" s="2"/>
+      <c r="A748" s="1"/>
     </row>
     <row r="749" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A749" s="2"/>
+      <c r="A749" s="1"/>
     </row>
     <row r="750" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A750" s="2"/>
+      <c r="A750" s="1"/>
     </row>
     <row r="751" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A751" s="2"/>
+      <c r="A751" s="1"/>
     </row>
     <row r="752" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A752" s="2"/>
+      <c r="A752" s="1"/>
     </row>
     <row r="753" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A753" s="2"/>
+      <c r="A753" s="1"/>
     </row>
     <row r="754" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A754" s="2"/>
+      <c r="A754" s="1"/>
     </row>
     <row r="755" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A755" s="2"/>
+      <c r="A755" s="1"/>
     </row>
     <row r="756" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A756" s="2"/>
+      <c r="A756" s="1"/>
     </row>
     <row r="757" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A757" s="2"/>
+      <c r="A757" s="1"/>
     </row>
     <row r="758" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A758" s="2"/>
+      <c r="A758" s="1"/>
     </row>
     <row r="759" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A759" s="2"/>
+      <c r="A759" s="1"/>
     </row>
     <row r="760" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A760" s="2"/>
+      <c r="A760" s="1"/>
     </row>
     <row r="761" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A761" s="2"/>
+      <c r="A761" s="1"/>
     </row>
     <row r="762" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A762" s="2"/>
+      <c r="A762" s="1"/>
     </row>
     <row r="763" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A763" s="2"/>
+      <c r="A763" s="1"/>
     </row>
     <row r="764" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A764" s="2"/>
+      <c r="A764" s="1"/>
     </row>
     <row r="765" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A765" s="2"/>
+      <c r="A765" s="1"/>
     </row>
     <row r="766" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A766" s="2"/>
+      <c r="A766" s="1"/>
     </row>
     <row r="767" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A767" s="2"/>
+      <c r="A767" s="1"/>
     </row>
     <row r="768" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A768" s="2"/>
+      <c r="A768" s="1"/>
     </row>
     <row r="769" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A769" s="2"/>
+      <c r="A769" s="1"/>
     </row>
     <row r="770" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A770" s="2"/>
+      <c r="A770" s="1"/>
     </row>
     <row r="771" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A771" s="2"/>
+      <c r="A771" s="1"/>
     </row>
     <row r="772" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A772" s="2"/>
+      <c r="A772" s="1"/>
     </row>
     <row r="773" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A773" s="2"/>
+      <c r="A773" s="1"/>
     </row>
     <row r="774" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A774" s="2"/>
+      <c r="A774" s="1"/>
     </row>
     <row r="775" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A775" s="2"/>
+      <c r="A775" s="1"/>
     </row>
     <row r="776" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A776" s="2"/>
+      <c r="A776" s="1"/>
     </row>
     <row r="777" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A777" s="2"/>
+      <c r="A777" s="1"/>
     </row>
     <row r="778" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A778" s="2"/>
+      <c r="A778" s="1"/>
     </row>
     <row r="779" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A779" s="2"/>
+      <c r="A779" s="1"/>
     </row>
     <row r="780" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A780" s="2"/>
+      <c r="A780" s="1"/>
     </row>
     <row r="781" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A781" s="2"/>
+      <c r="A781" s="1"/>
     </row>
     <row r="782" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A782" s="2"/>
+      <c r="A782" s="1"/>
     </row>
     <row r="783" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A783" s="2"/>
+      <c r="A783" s="1"/>
     </row>
     <row r="784" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A784" s="2"/>
+      <c r="A784" s="1"/>
     </row>
     <row r="785" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A785" s="2"/>
+      <c r="A785" s="1"/>
     </row>
     <row r="786" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A786" s="2"/>
+      <c r="A786" s="1"/>
     </row>
     <row r="787" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A787" s="2"/>
+      <c r="A787" s="1"/>
     </row>
     <row r="788" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A788" s="2"/>
+      <c r="A788" s="1"/>
     </row>
     <row r="789" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A789" s="2"/>
+      <c r="A789" s="1"/>
     </row>
     <row r="790" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A790" s="2"/>
+      <c r="A790" s="1"/>
     </row>
     <row r="791" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A791" s="2"/>
+      <c r="A791" s="1"/>
     </row>
     <row r="792" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A792" s="2"/>
+      <c r="A792" s="1"/>
     </row>
     <row r="793" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A793" s="2"/>
+      <c r="A793" s="1"/>
     </row>
     <row r="794" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A794" s="2"/>
+      <c r="A794" s="1"/>
     </row>
     <row r="795" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A795" s="2"/>
+      <c r="A795" s="1"/>
     </row>
     <row r="796" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A796" s="2"/>
+      <c r="A796" s="1"/>
     </row>
     <row r="797" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A797" s="2"/>
+      <c r="A797" s="1"/>
     </row>
     <row r="798" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A798" s="2"/>
+      <c r="A798" s="1"/>
     </row>
     <row r="799" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A799" s="2"/>
+      <c r="A799" s="1"/>
     </row>
     <row r="800" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A800" s="2"/>
+      <c r="A800" s="1"/>
     </row>
     <row r="801" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A801" s="2"/>
+      <c r="A801" s="1"/>
     </row>
     <row r="802" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A802" s="2"/>
+      <c r="A802" s="1"/>
     </row>
     <row r="803" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A803" s="2"/>
+      <c r="A803" s="1"/>
     </row>
     <row r="804" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A804" s="2"/>
+      <c r="A804" s="1"/>
     </row>
     <row r="805" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A805" s="2"/>
+      <c r="A805" s="1"/>
     </row>
     <row r="806" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A806" s="2"/>
+      <c r="A806" s="1"/>
     </row>
     <row r="807" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A807" s="2"/>
+      <c r="A807" s="1"/>
     </row>
     <row r="808" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A808" s="2"/>
+      <c r="A808" s="1"/>
     </row>
     <row r="809" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A809" s="2"/>
+      <c r="A809" s="1"/>
     </row>
     <row r="810" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A810" s="2"/>
+      <c r="A810" s="1"/>
     </row>
     <row r="811" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A811" s="2"/>
+      <c r="A811" s="1"/>
     </row>
     <row r="812" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A812" s="2"/>
+      <c r="A812" s="1"/>
     </row>
     <row r="813" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A813" s="2"/>
+      <c r="A813" s="1"/>
     </row>
     <row r="814" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A814" s="2"/>
+      <c r="A814" s="1"/>
     </row>
     <row r="815" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A815" s="2"/>
+      <c r="A815" s="1"/>
     </row>
     <row r="816" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A816" s="2"/>
+      <c r="A816" s="1"/>
     </row>
     <row r="817" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A817" s="2"/>
+      <c r="A817" s="1"/>
     </row>
     <row r="818" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A818" s="2"/>
+      <c r="A818" s="1"/>
     </row>
     <row r="819" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A819" s="2"/>
+      <c r="A819" s="1"/>
     </row>
     <row r="820" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A820" s="2"/>
+      <c r="A820" s="1"/>
     </row>
     <row r="821" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A821" s="2"/>
+      <c r="A821" s="1"/>
     </row>
     <row r="822" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A822" s="2"/>
+      <c r="A822" s="1"/>
     </row>
     <row r="823" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A823" s="2"/>
+      <c r="A823" s="1"/>
     </row>
     <row r="824" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A824" s="2"/>
+      <c r="A824" s="1"/>
     </row>
     <row r="825" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A825" s="2"/>
+      <c r="A825" s="1"/>
     </row>
     <row r="826" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A826" s="2"/>
+      <c r="A826" s="1"/>
     </row>
     <row r="827" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A827" s="2"/>
+      <c r="A827" s="1"/>
     </row>
     <row r="828" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A828" s="2"/>
+      <c r="A828" s="1"/>
     </row>
     <row r="829" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A829" s="2"/>
+      <c r="A829" s="1"/>
     </row>
     <row r="830" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A830" s="2"/>
+      <c r="A830" s="1"/>
     </row>
     <row r="831" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A831" s="2"/>
+      <c r="A831" s="1"/>
     </row>
     <row r="832" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A832" s="2"/>
+      <c r="A832" s="1"/>
     </row>
     <row r="833" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A833" s="2"/>
+      <c r="A833" s="1"/>
     </row>
     <row r="834" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A834" s="2"/>
+      <c r="A834" s="1"/>
     </row>
     <row r="835" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A835" s="2"/>
+      <c r="A835" s="1"/>
     </row>
     <row r="836" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A836" s="2"/>
+      <c r="A836" s="1"/>
     </row>
     <row r="837" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A837" s="2"/>
+      <c r="A837" s="1"/>
     </row>
     <row r="838" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A838" s="2"/>
+      <c r="A838" s="1"/>
     </row>
     <row r="839" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A839" s="2"/>
+      <c r="A839" s="1"/>
     </row>
     <row r="840" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A840" s="2"/>
+      <c r="A840" s="1"/>
     </row>
     <row r="841" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A841" s="2"/>
+      <c r="A841" s="1"/>
     </row>
     <row r="842" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A842" s="2"/>
+      <c r="A842" s="1"/>
     </row>
     <row r="843" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A843" s="2"/>
+      <c r="A843" s="1"/>
     </row>
     <row r="844" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A844" s="2"/>
+      <c r="A844" s="1"/>
     </row>
     <row r="845" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A845" s="2"/>
+      <c r="A845" s="1"/>
     </row>
     <row r="846" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A846" s="2"/>
+      <c r="A846" s="1"/>
     </row>
     <row r="847" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A847" s="2"/>
+      <c r="A847" s="1"/>
     </row>
     <row r="848" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A848" s="2"/>
+      <c r="A848" s="1"/>
     </row>
     <row r="849" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A849" s="2"/>
+      <c r="A849" s="1"/>
     </row>
     <row r="850" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A850" s="2"/>
+      <c r="A850" s="1"/>
     </row>
     <row r="851" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A851" s="2"/>
+      <c r="A851" s="1"/>
     </row>
     <row r="852" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A852" s="2"/>
+      <c r="A852" s="1"/>
     </row>
     <row r="853" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A853" s="2"/>
+      <c r="A853" s="1"/>
     </row>
     <row r="854" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A854" s="2"/>
+      <c r="A854" s="1"/>
     </row>
     <row r="855" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A855" s="2"/>
+      <c r="A855" s="1"/>
     </row>
     <row r="856" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A856" s="2"/>
+      <c r="A856" s="1"/>
     </row>
     <row r="857" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A857" s="2"/>
+      <c r="A857" s="1"/>
     </row>
     <row r="858" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A858" s="2"/>
+      <c r="A858" s="1"/>
     </row>
     <row r="859" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A859" s="2"/>
+      <c r="A859" s="1"/>
     </row>
     <row r="860" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A860" s="2"/>
+      <c r="A860" s="1"/>
     </row>
     <row r="861" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A861" s="2"/>
+      <c r="A861" s="1"/>
     </row>
     <row r="862" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A862" s="2"/>
+      <c r="A862" s="1"/>
     </row>
     <row r="863" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A863" s="2"/>
+      <c r="A863" s="1"/>
     </row>
     <row r="864" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A864" s="2"/>
+      <c r="A864" s="1"/>
     </row>
     <row r="865" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A865" s="2"/>
+      <c r="A865" s="1"/>
     </row>
     <row r="866" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A866" s="2"/>
+      <c r="A866" s="1"/>
     </row>
     <row r="867" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A867" s="2"/>
+      <c r="A867" s="1"/>
     </row>
     <row r="868" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A868" s="2"/>
+      <c r="A868" s="1"/>
     </row>
     <row r="869" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A869" s="2"/>
+      <c r="A869" s="1"/>
     </row>
     <row r="870" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A870" s="2"/>
+      <c r="A870" s="1"/>
     </row>
     <row r="871" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A871" s="2"/>
+      <c r="A871" s="1"/>
     </row>
     <row r="872" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A872" s="2"/>
+      <c r="A872" s="1"/>
     </row>
     <row r="873" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A873" s="2"/>
+      <c r="A873" s="1"/>
     </row>
     <row r="874" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A874" s="2"/>
+      <c r="A874" s="1"/>
     </row>
     <row r="875" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A875" s="2"/>
+      <c r="A875" s="1"/>
     </row>
     <row r="876" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A876" s="2"/>
+      <c r="A876" s="1"/>
     </row>
     <row r="877" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A877" s="2"/>
+      <c r="A877" s="1"/>
     </row>
     <row r="878" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A878" s="2"/>
+      <c r="A878" s="1"/>
     </row>
     <row r="879" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A879" s="2"/>
+      <c r="A879" s="1"/>
     </row>
     <row r="880" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A880" s="2"/>
+      <c r="A880" s="1"/>
     </row>
     <row r="881" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A881" s="2"/>
+      <c r="A881" s="1"/>
     </row>
     <row r="882" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A882" s="2"/>
+      <c r="A882" s="1"/>
     </row>
     <row r="883" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A883" s="2"/>
+      <c r="A883" s="1"/>
     </row>
     <row r="884" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A884" s="2"/>
+      <c r="A884" s="1"/>
     </row>
     <row r="885" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A885" s="2"/>
+      <c r="A885" s="1"/>
     </row>
     <row r="886" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A886" s="2"/>
+      <c r="A886" s="1"/>
     </row>
     <row r="887" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A887" s="2"/>
+      <c r="A887" s="1"/>
     </row>
     <row r="888" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A888" s="2"/>
+      <c r="A888" s="1"/>
     </row>
     <row r="889" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A889" s="2"/>
+      <c r="A889" s="1"/>
     </row>
     <row r="890" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A890" s="2"/>
+      <c r="A890" s="1"/>
     </row>
     <row r="891" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A891" s="2"/>
+      <c r="A891" s="1"/>
     </row>
     <row r="892" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A892" s="2"/>
+      <c r="A892" s="1"/>
     </row>
     <row r="893" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A893" s="2"/>
+      <c r="A893" s="1"/>
     </row>
     <row r="894" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A894" s="2"/>
+      <c r="A894" s="1"/>
     </row>
     <row r="895" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A895" s="2"/>
+      <c r="A895" s="1"/>
     </row>
     <row r="896" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A896" s="2"/>
+      <c r="A896" s="1"/>
     </row>
     <row r="897" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A897" s="2"/>
+      <c r="A897" s="1"/>
     </row>
     <row r="898" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A898" s="2"/>
+      <c r="A898" s="1"/>
     </row>
     <row r="899" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A899" s="2"/>
+      <c r="A899" s="1"/>
     </row>
     <row r="900" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A900" s="2"/>
+      <c r="A900" s="1"/>
     </row>
     <row r="901" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A901" s="2"/>
+      <c r="A901" s="1"/>
     </row>
     <row r="902" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A902" s="2"/>
+      <c r="A902" s="1"/>
     </row>
     <row r="903" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A903" s="2"/>
+      <c r="A903" s="1"/>
     </row>
     <row r="904" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A904" s="2"/>
+      <c r="A904" s="1"/>
     </row>
     <row r="905" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A905" s="2"/>
+      <c r="A905" s="1"/>
     </row>
     <row r="906" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A906" s="2"/>
+      <c r="A906" s="1"/>
     </row>
     <row r="907" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A907" s="2"/>
+      <c r="A907" s="1"/>
     </row>
     <row r="908" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A908" s="2"/>
+      <c r="A908" s="1"/>
     </row>
     <row r="909" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A909" s="2"/>
+      <c r="A909" s="1"/>
     </row>
     <row r="910" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A910" s="2"/>
+      <c r="A910" s="1"/>
     </row>
     <row r="911" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A911" s="2"/>
+      <c r="A911" s="1"/>
     </row>
     <row r="912" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A912" s="2"/>
+      <c r="A912" s="1"/>
     </row>
     <row r="913" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A913" s="2"/>
+      <c r="A913" s="1"/>
     </row>
     <row r="914" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A914" s="2"/>
+      <c r="A914" s="1"/>
     </row>
     <row r="915" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A915" s="2"/>
+      <c r="A915" s="1"/>
     </row>
     <row r="916" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A916" s="2"/>
+      <c r="A916" s="1"/>
     </row>
     <row r="917" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A917" s="2"/>
+      <c r="A917" s="1"/>
     </row>
     <row r="918" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A918" s="2"/>
+      <c r="A918" s="1"/>
     </row>
     <row r="919" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A919" s="2"/>
+      <c r="A919" s="1"/>
     </row>
     <row r="920" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A920" s="2"/>
+      <c r="A920" s="1"/>
     </row>
     <row r="921" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A921" s="2"/>
+      <c r="A921" s="1"/>
     </row>
     <row r="922" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A922" s="2"/>
+      <c r="A922" s="1"/>
     </row>
     <row r="923" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A923" s="2"/>
+      <c r="A923" s="1"/>
     </row>
     <row r="924" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A924" s="2"/>
+      <c r="A924" s="1"/>
     </row>
     <row r="925" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A925" s="2"/>
+      <c r="A925" s="1"/>
     </row>
     <row r="926" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A926" s="2"/>
+      <c r="A926" s="1"/>
     </row>
     <row r="927" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A927" s="2"/>
+      <c r="A927" s="1"/>
     </row>
     <row r="928" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A928" s="2"/>
+      <c r="A928" s="1"/>
     </row>
     <row r="929" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A929" s="2"/>
+      <c r="A929" s="1"/>
     </row>
     <row r="930" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A930" s="2"/>
+      <c r="A930" s="1"/>
     </row>
     <row r="931" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A931" s="2"/>
+      <c r="A931" s="1"/>
     </row>
     <row r="932" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A932" s="2"/>
+      <c r="A932" s="1"/>
     </row>
     <row r="933" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A933" s="2"/>
+      <c r="A933" s="1"/>
     </row>
     <row r="934" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A934" s="2"/>
+      <c r="A934" s="1"/>
     </row>
     <row r="935" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A935" s="2"/>
+      <c r="A935" s="1"/>
     </row>
     <row r="936" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A936" s="2"/>
+      <c r="A936" s="1"/>
     </row>
     <row r="937" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A937" s="2"/>
+      <c r="A937" s="1"/>
     </row>
     <row r="938" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A938" s="2"/>
+      <c r="A938" s="1"/>
     </row>
     <row r="939" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A939" s="2"/>
+      <c r="A939" s="1"/>
     </row>
     <row r="940" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A940" s="2"/>
+      <c r="A940" s="1"/>
     </row>
     <row r="941" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A941" s="2"/>
+      <c r="A941" s="1"/>
     </row>
     <row r="942" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A942" s="2"/>
+      <c r="A942" s="1"/>
     </row>
     <row r="943" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A943" s="2"/>
+      <c r="A943" s="1"/>
     </row>
     <row r="944" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A944" s="2"/>
+      <c r="A944" s="1"/>
     </row>
     <row r="945" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A945" s="2"/>
+      <c r="A945" s="1"/>
     </row>
     <row r="946" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A946" s="2"/>
+      <c r="A946" s="1"/>
     </row>
     <row r="947" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A947" s="2"/>
+      <c r="A947" s="1"/>
     </row>
     <row r="948" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A948" s="2"/>
+      <c r="A948" s="1"/>
     </row>
     <row r="949" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A949" s="2"/>
+      <c r="A949" s="1"/>
     </row>
     <row r="950" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A950" s="2"/>
+      <c r="A950" s="1"/>
     </row>
     <row r="951" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A951" s="2"/>
+      <c r="A951" s="1"/>
     </row>
     <row r="952" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A952" s="2"/>
+      <c r="A952" s="1"/>
     </row>
     <row r="953" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A953" s="2"/>
+      <c r="A953" s="1"/>
     </row>
     <row r="954" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A954" s="2"/>
+      <c r="A954" s="1"/>
     </row>
     <row r="955" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A955" s="2"/>
+      <c r="A955" s="1"/>
     </row>
     <row r="956" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A956" s="2"/>
+      <c r="A956" s="1"/>
     </row>
     <row r="957" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A957" s="2"/>
+      <c r="A957" s="1"/>
     </row>
     <row r="958" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A958" s="2"/>
+      <c r="A958" s="1"/>
     </row>
     <row r="959" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A959" s="2"/>
+      <c r="A959" s="1"/>
     </row>
     <row r="960" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A960" s="2"/>
+      <c r="A960" s="1"/>
     </row>
     <row r="961" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A961" s="2"/>
+      <c r="A961" s="1"/>
     </row>
     <row r="962" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A962" s="2"/>
+      <c r="A962" s="1"/>
     </row>
     <row r="963" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A963" s="2"/>
+      <c r="A963" s="1"/>
     </row>
     <row r="964" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A964" s="2"/>
+      <c r="A964" s="1"/>
     </row>
     <row r="965" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A965" s="2"/>
+      <c r="A965" s="1"/>
     </row>
     <row r="966" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A966" s="2"/>
+      <c r="A966" s="1"/>
     </row>
     <row r="967" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A967" s="2"/>
+      <c r="A967" s="1"/>
     </row>
     <row r="968" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A968" s="2"/>
+      <c r="A968" s="1"/>
     </row>
     <row r="969" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A969" s="2"/>
+      <c r="A969" s="1"/>
     </row>
     <row r="970" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A970" s="2"/>
+      <c r="A970" s="1"/>
     </row>
     <row r="971" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A971" s="2"/>
+      <c r="A971" s="1"/>
     </row>
     <row r="972" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A972" s="2"/>
+      <c r="A972" s="1"/>
     </row>
     <row r="973" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A973" s="2"/>
+      <c r="A973" s="1"/>
     </row>
     <row r="974" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A974" s="2"/>
+      <c r="A974" s="1"/>
     </row>
     <row r="975" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A975" s="2"/>
+      <c r="A975" s="1"/>
     </row>
     <row r="976" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A976" s="2"/>
+      <c r="A976" s="1"/>
     </row>
     <row r="977" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A977" s="2"/>
+      <c r="A977" s="1"/>
     </row>
     <row r="978" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A978" s="2"/>
+      <c r="A978" s="1"/>
     </row>
     <row r="979" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A979" s="2"/>
+      <c r="A979" s="1"/>
     </row>
     <row r="980" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A980" s="2"/>
+      <c r="A980" s="1"/>
     </row>
     <row r="981" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A981" s="2"/>
+      <c r="A981" s="1"/>
     </row>
     <row r="982" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A982" s="2"/>
+      <c r="A982" s="1"/>
     </row>
     <row r="983" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A983" s="2"/>
+      <c r="A983" s="1"/>
     </row>
     <row r="984" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A984" s="2"/>
+      <c r="A984" s="1"/>
     </row>
     <row r="985" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A985" s="2"/>
+      <c r="A985" s="1"/>
     </row>
     <row r="986" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A986" s="2"/>
+      <c r="A986" s="1"/>
     </row>
     <row r="987" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A987" s="2"/>
+      <c r="A987" s="1"/>
     </row>
     <row r="988" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A988" s="2"/>
+      <c r="A988" s="1"/>
     </row>
     <row r="989" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A989" s="2"/>
+      <c r="A989" s="1"/>
     </row>
     <row r="990" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A990" s="2"/>
+      <c r="A990" s="1"/>
     </row>
     <row r="991" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A991" s="2"/>
+      <c r="A991" s="1"/>
     </row>
     <row r="992" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A992" s="2"/>
+      <c r="A992" s="1"/>
     </row>
     <row r="993" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A993" s="2"/>
+      <c r="A993" s="1"/>
     </row>
     <row r="994" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A994" s="2"/>
+      <c r="A994" s="1"/>
     </row>
     <row r="995" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A995" s="2"/>
+      <c r="A995" s="1"/>
     </row>
     <row r="996" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A996" s="2"/>
+      <c r="A996" s="1"/>
     </row>
     <row r="997" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A997" s="2"/>
+      <c r="A997" s="1"/>
     </row>
     <row r="998" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A998" s="2"/>
+      <c r="A998" s="1"/>
     </row>
     <row r="999" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A999" s="2"/>
+      <c r="A999" s="1"/>
     </row>
     <row r="1000" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1000" s="2"/>
+      <c r="A1000" s="1"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" gridLines="1"/>
@@ -3713,274 +4650,327 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A48D09-06E3-4C27-AABB-9B1DB0572E07}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>41760</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="5">
         <v>4.125</v>
       </c>
-      <c r="C2" s="8">
+      <c r="D2" s="5">
         <v>4</v>
       </c>
-      <c r="D2">
-        <f>AVERAGE(B2:C2)</f>
+      <c r="E2">
+        <f>AVERAGE(C2:D2)</f>
         <v>4.0625</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>41912</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="5">
         <v>9.5</v>
       </c>
-      <c r="C3" s="8">
+      <c r="D3" s="5">
         <v>10.125</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D17" si="0">AVERAGE(B3:C3)</f>
+      <c r="E3">
+        <f t="shared" ref="E3:E17" si="0">AVERAGE(C3:D3)</f>
         <v>9.8125</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>42155</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5">
         <v>5.625</v>
       </c>
-      <c r="C4" s="8">
+      <c r="D4" s="5">
         <v>5.75</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>5.6875</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>42277</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="5">
         <v>12.25</v>
       </c>
-      <c r="C5" s="8">
+      <c r="D5" s="5">
         <v>10.75</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>42521</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="5">
         <v>6.125</v>
       </c>
-      <c r="C6" s="8">
+      <c r="D6" s="5">
         <v>6.5</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>6.3125</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>42629</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5">
         <v>10.625</v>
       </c>
-      <c r="C7" s="8">
+      <c r="D7" s="5">
         <v>9.75</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>10.1875</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>42888</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="5">
         <v>6.75</v>
       </c>
-      <c r="C8" s="8">
+      <c r="D8" s="5">
         <v>5.375</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>6.0625</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>43007</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="5">
         <v>9.375</v>
       </c>
-      <c r="C9" s="8">
+      <c r="D9" s="5">
         <v>9.25</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>9.3125</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>43251</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="5">
         <v>4.5</v>
       </c>
-      <c r="C10" s="8">
+      <c r="D10" s="5">
         <v>3.625</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>4.0625</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>43351</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="5">
         <v>13.5</v>
       </c>
-      <c r="C11" s="8">
+      <c r="D11" s="5">
         <v>13.5</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>43616</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="5">
         <v>9.75</v>
       </c>
-      <c r="C12" s="8">
+      <c r="D12" s="5">
         <v>9.25</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>43738</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="5">
         <v>8.5</v>
       </c>
-      <c r="C13" s="8">
+      <c r="D13" s="5">
         <v>8.75</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>8.625</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>43982</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="5">
         <v>8.625</v>
       </c>
-      <c r="C14" s="8">
+      <c r="D14" s="5">
         <v>8.75</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>8.6875</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>44104</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="5">
         <v>4.25</v>
       </c>
-      <c r="C15" s="8">
+      <c r="D15" s="5">
         <v>4.25</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>44346</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="5">
         <v>2.25</v>
       </c>
-      <c r="C16" s="8">
+      <c r="D16" s="5">
         <v>2.75</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>44469</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5">
         <v>13</v>
       </c>
-      <c r="C17" s="8">
+      <c r="D17" s="5">
         <v>14.25</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>13.625</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>